--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:16:41+00:00</t>
+    <t>2023-03-19T16:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:22:10+00:00</t>
+    <t>2023-03-20T09:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:04:21+00:00</t>
+    <t>2023-03-20T09:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:08:06+00:00</t>
+    <t>2023-03-20T10:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:34:11+00:00</t>
+    <t>2023-03-20T10:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:37:48+00:00</t>
+    <t>2023-03-20T10:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:38:51+00:00</t>
+    <t>2023-03-20T10:43:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:43:12+00:00</t>
+    <t>2023-03-20T10:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:49:37+00:00</t>
+    <t>2023-03-20T10:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:53:05+00:00</t>
+    <t>2023-03-20T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:58:46+00:00</t>
+    <t>2023-03-20T11:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
